--- a/Demowebshop/src/test/resources/Book1.xlsx
+++ b/Demowebshop/src/test/resources/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10965" windowHeight="2865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10965" windowHeight="2835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,13 +55,13 @@
     <t>guhanathan</t>
   </si>
   <si>
-    <t>2k21guga@gmail.com</t>
-  </si>
-  <si>
     <t>already</t>
   </si>
   <si>
     <t>dharu</t>
+  </si>
+  <si>
+    <t>2k21gu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
         <v>123456</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>123456</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>

--- a/Demowebshop/src/test/resources/Book1.xlsx
+++ b/Demowebshop/src/test/resources/Book1.xlsx
@@ -61,7 +61,7 @@
     <t>dharu</t>
   </si>
   <si>
-    <t>2k21gu@gmail.com</t>
+    <t>2k20gu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Demowebshop/src/test/resources/Book1.xlsx
+++ b/Demowebshop/src/test/resources/Book1.xlsx
@@ -43,9 +43,6 @@
     <t>dh</t>
   </si>
   <si>
-    <t>2k</t>
-  </si>
-  <si>
     <t>dharanipii</t>
   </si>
   <si>
@@ -61,7 +58,10 @@
     <t>dharu</t>
   </si>
   <si>
-    <t>2k20gu@gmail.com</t>
+    <t>2k1</t>
+  </si>
+  <si>
+    <t>2k21cse040@kiot.ac.in</t>
   </si>
 </sst>
 </file>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,13 +419,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1">
         <v>123456</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -433,13 +433,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>453216</v>
@@ -453,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -486,6 +486,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1"/>

--- a/Demowebshop/src/test/resources/Book1.xlsx
+++ b/Demowebshop/src/test/resources/Book1.xlsx
@@ -61,7 +61,7 @@
     <t>2k1</t>
   </si>
   <si>
-    <t>2k21cse040@kiot.ac.in</t>
+    <t>2k21cse048@kiot.ac.in</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Demowebshop/src/test/resources/Book1.xlsx
+++ b/Demowebshop/src/test/resources/Book1.xlsx
@@ -46,22 +46,22 @@
     <t>dharanipii</t>
   </si>
   <si>
-    <t>2k21cse0220@kiot.ac.in</t>
-  </si>
-  <si>
     <t>guhanathan</t>
   </si>
   <si>
     <t>already</t>
   </si>
   <si>
-    <t>dharu</t>
-  </si>
-  <si>
-    <t>2k1</t>
-  </si>
-  <si>
-    <t>2k21cse048@kiot.ac.in</t>
+    <t>2k21cse020@kiot.ac.in</t>
+  </si>
+  <si>
+    <t>2k11</t>
+  </si>
+  <si>
+    <t>2k21cse035@kiot.ac.in</t>
+  </si>
+  <si>
+    <t>dharun</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,13 +419,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1">
         <v>123456</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>453216</v>
@@ -453,13 +453,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>123456</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>

--- a/Demowebshop/src/test/resources/Book1.xlsx
+++ b/Demowebshop/src/test/resources/Book1.xlsx
@@ -52,9 +52,6 @@
     <t>already</t>
   </si>
   <si>
-    <t>2k21cse020@kiot.ac.in</t>
-  </si>
-  <si>
     <t>2k11</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>dharun</t>
+  </si>
+  <si>
+    <t>2k21cse028@kiot.ac.in</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1">
         <v>123456</v>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>453216</v>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>123456</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>

--- a/Demowebshop/src/test/resources/Book1.xlsx
+++ b/Demowebshop/src/test/resources/Book1.xlsx
@@ -46,22 +46,22 @@
     <t>dharanipii</t>
   </si>
   <si>
-    <t>guhanathan</t>
-  </si>
-  <si>
     <t>already</t>
   </si>
   <si>
     <t>2k11</t>
   </si>
   <si>
-    <t>2k21cse035@kiot.ac.in</t>
-  </si>
-  <si>
     <t>dharun</t>
   </si>
   <si>
-    <t>2k21cse028@kiot.ac.in</t>
+    <t>gopi</t>
+  </si>
+  <si>
+    <t>2k21cse0355@kiot.ac.in</t>
+  </si>
+  <si>
+    <t>2k21cse020@kiot.ac.in</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
         <v>123456</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>453216</v>
@@ -453,13 +453,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>123456</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
